--- a/src/LW_5/Compare.xlsx
+++ b/src/LW_5/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дианочка\IdeaProjects\Distribute_Systems_And_Tasks\src\LW_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A6190-86EB-48CB-B669-BB7283D880D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A79BC6-4F90-43E3-A06E-179BCF4581C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29580BA3-BEA9-4C68-8E86-234D115A3761}"/>
   </bookViews>
@@ -342,6 +342,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$2:$G$2</c:f>
@@ -406,6 +433,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$3:$G$3</c:f>
@@ -470,6 +524,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$4:$G$4</c:f>
@@ -534,6 +615,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$5:$G$5</c:f>
@@ -598,6 +706,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$6:$G$6</c:f>
@@ -662,6 +797,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист2!$B$7:$G$7</c:f>
@@ -775,6 +937,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1900,7 +2063,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
